--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNU_HCMUS - 2022_23 - Term I\Programming4DS_CSC17104\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C916F9-964B-4542-A75E-E60A6CCEE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57812EBC-BF4B-4FAB-B5B5-E3CAA985E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4D1ABE58-5B51-4C76-8474-842C8E26A2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -119,13 +119,16 @@
     <t xml:space="preserve">     Phân bổ cột loại</t>
   </si>
   <si>
-    <t>Ghi chú:</t>
-  </si>
-  <si>
-    <t>Phần 4 sẽ được cập nhật khi nhóm thống nhất câu hỏi</t>
-  </si>
-  <si>
     <t>Thu thập dữ liệu, tạo Github/Trello, planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Câu hỏi 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Câu hỏi 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Câu hỏi 03</t>
   </si>
 </sst>
 </file>
@@ -363,21 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,6 +383,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +716,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,19 +728,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1">
@@ -808,11 +811,11 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -926,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -937,11 +940,11 @@
       <c r="E4" s="10">
         <v>44913</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1017,13 +1020,13 @@
       <c r="E6" s="10">
         <v>44915</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1058,13 +1061,13 @@
       <c r="E7" s="10">
         <v>44915</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -1099,13 +1102,13 @@
       <c r="E8" s="10">
         <v>44915</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1145,11 +1148,11 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -1189,17 +1192,17 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="29"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -1208,19 +1211,19 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10">
-        <v>44563</v>
+        <v>44919</v>
       </c>
       <c r="E11" s="10">
-        <v>44564</v>
+        <v>44921</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1230,38 +1233,38 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="N11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="24"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10">
-        <v>44565</v>
+        <v>44922</v>
       </c>
       <c r="E12" s="10">
-        <v>44565</v>
+        <v>44924</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1274,35 +1277,35 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="Q12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
-      <c r="Y12" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="10">
-        <v>44566</v>
+        <v>44925</v>
       </c>
       <c r="E13" s="10">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1318,32 +1321,32 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="T13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
-      <c r="Z13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA13" s="24"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="10">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="E14" s="10">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1362,37 +1365,155 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
+      <c r="W14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="19"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="17" t="s">
+      <c r="AA14" s="16"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="13">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>44565</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44565</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>44566</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44567</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>8</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>44567</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44567</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="N10:V10"/>
+  <mergeCells count="16">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNU_HCMUS - 2022_23 - Term I\Programming4DS_CSC17104\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57812EBC-BF4B-4FAB-B5B5-E3CAA985E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4EBBC7-0184-4C39-8799-4F6591A0D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4D1ABE58-5B51-4C76-8474-842C8E26A2FB}"/>
   </bookViews>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -342,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -366,6 +372,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,20 +405,17 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C43290E-19D2-444F-AF18-0F7E0518CE53}">
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,19 +746,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1">
@@ -811,11 +829,11 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -940,11 +958,11 @@
       <c r="E4" s="10">
         <v>44913</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1020,13 +1038,13 @@
       <c r="E6" s="10">
         <v>44915</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1061,13 +1079,13 @@
       <c r="E7" s="10">
         <v>44915</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -1102,13 +1120,13 @@
       <c r="E8" s="10">
         <v>44915</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1148,11 +1166,11 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -1192,17 +1210,17 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="29"/>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -1233,12 +1251,12 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="16"/>
+      <c r="N11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
@@ -1274,14 +1292,14 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
+      <c r="N12" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
@@ -1319,13 +1337,13 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="19" t="s">
+      <c r="R13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -1365,10 +1383,10 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="19" t="s">
+      <c r="W14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="19"/>
+      <c r="X14" s="24"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
@@ -1450,10 +1468,10 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
-      <c r="Z16" s="19" t="s">
+      <c r="Z16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="19"/>
+      <c r="AA16" s="24"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
@@ -1498,12 +1516,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
@@ -1511,9 +1523,15 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="N10:V10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNU_HCMUS - 2022_23 - Term I\Programming4DS_CSC17104\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4EBBC7-0184-4C39-8799-4F6591A0D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC1E19F-95CC-4AF6-8EC9-A814905ECCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4D1ABE58-5B51-4C76-8474-842C8E26A2FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">     Câu hỏi 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Câu hỏi 04</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -372,6 +375,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,34 +420,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C43290E-19D2-444F-AF18-0F7E0518CE53}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,20 +752,20 @@
     <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:30" ht="17" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1">
@@ -827,13 +834,22 @@
       <c r="AA1" s="4">
         <v>44932</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="17" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="22"/>
+      <c r="AB1" s="4">
+        <v>44933</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>44934</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="17" x14ac:dyDescent="0.4">
+      <c r="A2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -900,8 +916,17 @@
       <c r="AA2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -941,8 +966,11 @@
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
       <c r="AA3" s="16"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -958,11 +986,11 @@
       <c r="E4" s="10">
         <v>44913</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -982,8 +1010,11 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1021,8 +1052,11 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2.1</v>
       </c>
@@ -1038,13 +1072,13 @@
       <c r="E6" s="10">
         <v>44915</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
@@ -1062,8 +1096,11 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -1079,13 +1116,13 @@
       <c r="E7" s="10">
         <v>44915</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -1103,8 +1140,11 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>2.2999999999999998</v>
       </c>
@@ -1120,13 +1160,13 @@
       <c r="E8" s="10">
         <v>44915</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1144,8 +1184,11 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>3</v>
       </c>
@@ -1166,11 +1209,11 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -1185,8 +1228,11 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1200,7 +1246,7 @@
         <v>44919</v>
       </c>
       <c r="E10" s="10">
-        <v>44562</v>
+        <v>44934</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1210,24 +1256,27 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="16"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>4.0999999999999996</v>
       </c>
@@ -1241,7 +1290,7 @@
         <v>44919</v>
       </c>
       <c r="E11" s="10">
-        <v>44921</v>
+        <v>45291</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -1251,24 +1300,27 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="N11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>4.2</v>
       </c>
@@ -1279,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="10">
-        <v>44922</v>
+        <v>44929</v>
       </c>
       <c r="E12" s="10">
-        <v>44924</v>
+        <v>44932</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -1292,24 +1344,27 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="X12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>4.3</v>
       </c>
@@ -1320,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="10">
-        <v>44925</v>
+        <v>44929</v>
       </c>
       <c r="E13" s="10">
-        <v>44562</v>
+        <v>44932</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1337,34 +1392,37 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="X13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="10">
-        <v>44563</v>
+        <v>44929</v>
       </c>
       <c r="E14" s="10">
-        <v>44564</v>
+        <v>44932</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1383,29 +1441,32 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="W14" s="16"/>
+      <c r="X14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10">
-        <v>44565</v>
+        <v>44933</v>
       </c>
       <c r="E15" s="10">
-        <v>44565</v>
+        <v>44934</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1426,27 +1487,30 @@
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="16"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10">
-        <v>44566</v>
+        <v>44933</v>
       </c>
       <c r="E16" s="10">
-        <v>44567</v>
+        <v>44933</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1468,26 +1532,29 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
-      <c r="Z16" s="24" t="s">
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="24"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="10">
-        <v>44567</v>
+        <v>44934</v>
       </c>
       <c r="E17" s="10">
-        <v>44567</v>
+        <v>44935</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -1510,29 +1577,78 @@
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="17" t="s">
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="AD17" s="24"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>44935</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44935</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R13:T13"/>
+  <mergeCells count="17">
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="N10:AC10"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="AB15:AC15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>